--- a/heatmap.xlsx
+++ b/heatmap.xlsx
@@ -986,7 +986,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>18</v>
